--- a/biology/Botanique/Serpula_(champignon)/Serpula_(champignon).xlsx
+++ b/biology/Botanique/Serpula_(champignon)/Serpula_(champignon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Serpula est un genre de champignons de la famille des Serpulaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces champignons sont résupinés et saprophytes.[réf. nécessaire]
 </t>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Index Fungorum                                      (11 avril 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Index Fungorum                                      (11 avril 2014) :
 Serpula atrovirens (Burt) W.B. Cooke 1957
 Serpula byssoidea (Burt) W.B. Cooke 1957
 Serpula costaricensis M. Mata &amp; Ryvarden 2007
@@ -553,7 +569,7 @@
 Serpula eurocephala (Berk. &amp; Broome) W.B. Cooke 1957
 Serpula fuscescens (Bres.) W.B. Cooke 1957
 Serpula himantioides (Fr.) P. Karst. 1884
-Serpula lacrymans (Wulfen) J. Schröt. 1885 - Mérule pleureuse ou Mérule pleureur[2],[3]
+Serpula lacrymans (Wulfen) J. Schröt. 1885 - Mérule pleureuse ou Mérule pleureur,
 Serpula olivacea (Schwein.) Zmitr. 2001
 Serpula pinastri (Fr.) W.B. Cooke 1957
 Serpula pulverulenta (Sowerby) Bondartsev 1959
